--- a/file_checks/X_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/X_correct_genes_rogue_pheno.xlsx
@@ -566,508 +566,508 @@
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">0.556876510697874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0916724672359315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682939836100284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93885089070343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.399479421025666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0975619926369515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26621392966329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.69394791921822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.317827124443185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.509503521444219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.288651016743129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.930693378123506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.91777479316923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32950947259677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30367318904253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35284458834333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.752323282732859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000337854346772821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.410925097195309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0115352181955604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.412802786204407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.975947556117274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884185554635678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332929664300621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0614728730852807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.55319049784104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1216422590047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.861176310690567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28561470166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.501929657287637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.26066916592408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262714231641934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.143466841939174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137121064612212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.01601066292967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.522136970193165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615209995641366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545056983057714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.848963168699339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.689574867709882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143691820344647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.04893137687277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.449260128366383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.311357501478646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20151799202936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.546337271796548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.730957025692596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27497984065443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259925355277509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592899257907316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.79641542791583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0593345187055398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0361801933463848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.284019672893552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910632783020409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253699664553279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48263078391957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.251411736718851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.368123606709105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.21306613032665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669996613856508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.274306083381263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.5232870472892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305957710774551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0321220600192652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13692527503272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698590371263791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.411532274583746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.117462330592452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.585799998230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.529741473574918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.509328858680607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926814845133832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.889284605707734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0461553742316529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.38422642125927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46589107743845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.562593075679214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39925150671243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0575274972450601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02120689299041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.512616461705105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.280897217496739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0171177214061118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.133774007016847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.121287429516923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.504482886435138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68388215810732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149474375213993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.83557316440708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68989316418799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.723739703996286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79830699355741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.98040026530287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35882347787095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.487497853804071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.457444506046697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.736523893575429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0657451792057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959005666277883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.690496356963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0838326194166056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942041491006158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23297575654681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.971686798912204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0509010550509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7645574384829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.36787399633484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00669734922914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.73860500137951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3418645132805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614172153125569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.562928716582756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.270993657629286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.25144510196349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0204494668141481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05038364770553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.261706652323814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00370542538564657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157989503951972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.611199173295055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93940049788773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508966493224138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.42481622780124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.01426846899884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949849889825408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167242845736791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885552121161807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.93110799847959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.564538242305014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106798332269781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.214466645121889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0181703271671597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88955448129964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.86903661205607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.42248543167492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.790620861354027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158934568264291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88747235250255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.824587077203111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.01626198407289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.468973732169358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.43125272586767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0143015898248242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.389824479031493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65205951029751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.20282030074361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2970853977974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.853238261000233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234647962754443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40531253474779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.113561779300777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.473960569605212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72170089849556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.82986576318899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.07315343404319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81635457670992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.464712923508235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0456669418556778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.11063263146672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.353025715469859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16117377298969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219278366264423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29033361082825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25922107910711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45239753129796</t>
+    <t xml:space="preserve">-0.94415252432767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.3514837616561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478352588476066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.349491878818743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.37391449106597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17528384171971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.669017489742155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174834769306674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.338545654940134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247629891560124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.749103823249298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.04231768011101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15692769919513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0307641148999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.445608959189159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04427117771575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.050353327302575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.630659475038748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03863807625373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.35185121456542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.146249239496051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.458612381187803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71376517860955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.496771750084061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4675597321462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.258601290400218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.415375432548212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44952488829661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.66876301475985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.49410510438808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.374954681644463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995391169245988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37302903783414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542156029134703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13005188007422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660674015032869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751144755870277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0899505103542006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.63096973818521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.18767828119622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892606600294071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.46811323399296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.388025958349024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908484507316518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.284253445022895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979193782606661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.487019042550602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1433654289761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334792293905921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97638809459756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.27413033013513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917218441824112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.61876551550605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26926348135859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.52062487864429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.07593020911379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04407098304788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321154325803476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.214425094243992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43108955199028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.24878910275059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36528978716111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.420660163084455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243453136526423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.269509121472732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.17932651871117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0698882120170424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.166774470076808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245660247237006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.7904868574255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94501025653224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980344099608163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.186157848738179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.65344621753243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.544594630306583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52060665514919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610006019967231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.610939406999944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223882399684386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870836280903573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.86864769257242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09156888631009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.932580191885979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.45754098332042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.849747642514871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.34983868475396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.207455190478542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.39287280014444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.312958307724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.267680465647408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51519800968257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0159534015801424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5498344059135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29674537185126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.34614234702792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07582898639443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.183845434592545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.690865673916348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17649120863187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.683336411857587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.868747770665949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01499384754284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.665406483196461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.474351463747224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06050126105849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.25528785315422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982974987892885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.139209411158493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.50904762800007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199088939713588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.297170726152984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80970797777368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.336865125195851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.653521000320414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.63674845816097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354890044148585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40112947722597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.00577648503087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104481670217087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.456859986618751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.29279514983063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.594457478175562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383098136761084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.732022136135109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799067955492074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105611990694606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221129707174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627716486499909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.22282325972744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93095085367057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.21807571668165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.896260019553088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.268624753725659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.51310271762009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.381523083803445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.313322306982455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.454956708362228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.5086766750929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24695954477937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4334553469951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.296603531449522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.60788370063802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25352493648526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978277984155078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.401836166314841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595174907985433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.36664961495421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388497201344263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318075926278889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4446608233823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.22914904705833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.492380199688987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76657212598773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.34562737020975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.784115429084562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.10789699486764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17358535721754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.829776768439267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82446107015727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.267573570358956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.727038027009034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0450688940235911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777518641642404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.39073586889498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22976875068138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0395670041243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">Aris</t>
@@ -2462,7 +2462,7 @@
         <v>350</v>
       </c>
       <c r="FM2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FN2" t="s">
         <v>351</v>
@@ -2477,13 +2477,13 @@
         <v>350</v>
       </c>
       <c r="FR2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FS2" t="s">
         <v>351</v>
       </c>
-      <c r="FS2" t="s">
-        <v>350</v>
-      </c>
       <c r="FT2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FU2" t="s">
         <v>351</v>
@@ -2495,10 +2495,10 @@
         <v>350</v>
       </c>
       <c r="FX2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FY2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FZ2" t="s">
         <v>351</v>

--- a/file_checks/X_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/X_correct_genes_rogue_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve">X_1017</t>
   </si>
@@ -563,505 +563,514 @@
     <t xml:space="preserve">rorS_risk_high</t>
   </si>
   <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.94415252432767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.3514837616561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478352588476066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.349491878818743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.37391449106597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17528384171971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.669017489742155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174834769306674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.338545654940134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247629891560124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.749103823249298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.04231768011101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15692769919513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0307641148999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.445608959189159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04427117771575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.050353327302575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.630659475038748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03863807625373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.35185121456542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.146249239496051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.458612381187803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71376517860955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.496771750084061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4675597321462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.258601290400218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.415375432548212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44952488829661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.66876301475985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.49410510438808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.374954681644463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995391169245988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37302903783414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542156029134703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13005188007422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660674015032869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751144755870277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0899505103542006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.63096973818521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.18767828119622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892606600294071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.46811323399296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.388025958349024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908484507316518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.284253445022895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979193782606661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.487019042550602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1433654289761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334792293905921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97638809459756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.27413033013513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917218441824112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.61876551550605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26926348135859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.52062487864429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.07593020911379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04407098304788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321154325803476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.214425094243992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43108955199028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.24878910275059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36528978716111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.420660163084455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243453136526423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.269509121472732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.17932651871117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0698882120170424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.166774470076808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245660247237006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.7904868574255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94501025653224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980344099608163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.186157848738179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.65344621753243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.544594630306583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52060665514919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610006019967231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.610939406999944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223882399684386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870836280903573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.86864769257242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09156888631009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.932580191885979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.45754098332042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.849747642514871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.34983868475396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.207455190478542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39287280014444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.312958307724548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267680465647408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51519800968257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0159534015801424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5498344059135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29674537185126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.34614234702792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07582898639443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.183845434592545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.690865673916348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17649120863187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.683336411857587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.868747770665949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01499384754284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.665406483196461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.474351463747224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06050126105849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.25528785315422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982974987892885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.139209411158493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.50904762800007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199088939713588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.297170726152984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80970797777368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.336865125195851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.653521000320414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.63674845816097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354890044148585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40112947722597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00577648503087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104481670217087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.456859986618751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.29279514983063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.594457478175562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383098136761084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.732022136135109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799067955492074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105611990694606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221129707174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.627716486499909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.22282325972744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93095085367057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.21807571668165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.896260019553088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.268624753725659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.51310271762009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.381523083803445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.313322306982455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.454956708362228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.5086766750929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24695954477937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4334553469951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.296603531449522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.60788370063802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25352493648526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978277984155078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.401836166314841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595174907985433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.36664961495421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388497201344263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318075926278889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4446608233823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.22914904705833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.492380199688987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76657212598773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.34562737020975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784115429084562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.10789699486764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17358535721754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.829776768439267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82446107015727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.267573570358956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.727038027009034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0450688940235911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.777518641642404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39073586889498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22976875068138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0395670041243</t>
+    <t xml:space="preserve">0.196442673391505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0870979846516657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.09057664399443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.766467249842254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.26525554175302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.349888029417961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.052281866708346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.55228660722107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863849953458616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.689321513968673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0828038593185153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.77152252308966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96191003111595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303898950853734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910503496744541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00764123110244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.290096162637946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.28451726026092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.954655774142636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2277629751317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65141139052909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134525594438509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46907141307189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0333405018609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.606867245506445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.493176775024872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502114160838073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507090930835908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111100254322538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.379509200910584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11127701940806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312207713551747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.00425266292261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52952685628816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22503085947096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4672958587479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.485516092013054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00303347292542773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.74283054506196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549935727838705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616370848777154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.203693100721096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03230012758506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.591933268294239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7540470157838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.246794871002984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1315795964416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64060489825752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.16538432036034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.434601090375734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.345762758403802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350274962577889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.399613953732042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.571190982451694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0769126683428847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11434944809271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.450049387130731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.615153559949764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334397109816923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55599389769796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.48462881194865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145988150653383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497441562163523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.926336159757793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225998327535048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165696243531837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12148497832358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88102116023853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.695917944869242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.34057819844519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.452633885317119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.428856821159935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.639270657466681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.34875523074512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0515758939338471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105336959402611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.642159840493225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34142531842186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.47582257877693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.41290905220681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.42784731167696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.01342631607055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.196519480967546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.7018732481898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.06356941880658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37734518918353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.86654310482506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04395465387332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234388704875403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517179352805001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10343181201168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.363245047423022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.652239944341256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.542226414576071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0696728975929559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895524886036278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.165902386564489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498480726993363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33637405952884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545390151219833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46605937301289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.484632670013457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.754654030979311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.280278361682237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1545555378929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.110149416475733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.695284160284617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0368412690336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.17661737026863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0249837175414694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.76710130932762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114192990932826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637647500272476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.63232098397674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.400302781489897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1367468280338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.10883589022934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21238438478902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54641551661321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498379566581223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.561282794522528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446038700304634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40579733264123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787154044701081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1926373777669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.410597940588819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03331262974056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.206619946103447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.958306943925681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42592217638932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17868010260479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.844262019038853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.179029330875317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.669105179912011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.13842027949184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150885502950193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38444079686732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.622392505732945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.09552921148488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71808265515763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322372284059943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.533977912033584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.548849393143372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.198557170657614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0956402655297716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.434996640360863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.879269028760396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.801747775317288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.67445390021457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325874612676196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.367707206311793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56593580977271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.681778599548263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147394567247696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419123072246443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.864227018678854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314153989867605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.420947942677116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.841087338458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61083813076117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.64858022986207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.312707611209986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.584948494429867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631414595817247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.43582377824904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.353897907196575</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -1955,559 +1964,577 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AC2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AD2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AI2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AP2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AQ2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AS2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AT2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AU2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AV2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AW2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AX2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AY2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BA2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BB2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BC2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BD2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BE2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BF2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BG2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BH2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BI2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BJ2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BK2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BL2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BM2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BN2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BO2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BP2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BQ2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BR2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BS2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BU2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BV2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BX2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BY2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BZ2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CA2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CB2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CD2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CE2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CF2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CG2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CH2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CI2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CK2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CL2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CN2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CP2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CQ2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CR2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CS2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CT2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CU2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CV2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CW2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CX2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CY2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="CZ2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DA2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DB2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DC2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DD2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DE2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DF2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DG2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DH2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DI2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="DJ2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="DK2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="DL2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="DM2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="DN2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="DO2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="DP2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="DQ2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="DR2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="DS2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="DT2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="DU2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="DV2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="DW2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="DX2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="DY2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DZ2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="EA2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="EB2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="EC2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="ED2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="EE2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="EF2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="EG2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="EH2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="EI2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EJ2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EK2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="EL2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="EM2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="EN2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="EO2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="EP2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="EQ2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="ER2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="ES2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="ET2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="EU2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="EW2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="EX2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EY2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="EZ2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="FA2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="FC2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="FD2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FE2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="FF2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="FI2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FJ2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FK2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FL2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FM2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FN2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FO2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FP2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FQ2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FR2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FS2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FT2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FU2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FV2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FW2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FX2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FY2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FZ2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="GA2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="GB2" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>354</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>354</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/X_correct_genes_rogue_pheno.xlsx
@@ -575,502 +575,502 @@
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196442673391505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0870979846516657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.09057664399443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.766467249842254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.26525554175302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.349888029417961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.052281866708346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.55228660722107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863849953458616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.689321513968673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0828038593185153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.77152252308966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96191003111595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303898950853734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910503496744541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00764123110244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.290096162637946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.28451726026092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.954655774142636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2277629751317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65141139052909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134525594438509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46907141307189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0333405018609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.606867245506445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.493176775024872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502114160838073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507090930835908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111100254322538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.379509200910584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11127701940806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312207713551747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.00425266292261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52952685628816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22503085947096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4672958587479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.485516092013054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00303347292542773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.74283054506196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549935727838705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616370848777154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.203693100721096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03230012758506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.591933268294239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7540470157838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.246794871002984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1315795964416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64060489825752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.16538432036034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.434601090375734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.345762758403802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350274962577889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.399613953732042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.571190982451694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0769126683428847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11434944809271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.450049387130731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.615153559949764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334397109816923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55599389769796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.48462881194865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145988150653383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497441562163523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.926336159757793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225998327535048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165696243531837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12148497832358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88102116023853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.695917944869242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.34057819844519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.452633885317119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.428856821159935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639270657466681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.34875523074512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0515758939338471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105336959402611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.642159840493225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34142531842186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.47582257877693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.41290905220681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.42784731167696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.01342631607055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.196519480967546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.7018732481898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.06356941880658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37734518918353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.86654310482506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04395465387332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234388704875403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517179352805001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10343181201168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.363245047423022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.652239944341256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.542226414576071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0696728975929559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895524886036278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.165902386564489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498480726993363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33637405952884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545390151219833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46605937301289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.484632670013457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.754654030979311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.280278361682237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1545555378929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.110149416475733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.695284160284617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0368412690336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.17661737026863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0249837175414694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.76710130932762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114192990932826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637647500272476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.63232098397674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.400302781489897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1367468280338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.10883589022934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21238438478902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54641551661321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498379566581223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.561282794522528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446038700304634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40579733264123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787154044701081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1926373777669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.410597940588819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03331262974056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.206619946103447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.958306943925681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42592217638932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17868010260479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.844262019038853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.179029330875317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.669105179912011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.13842027949184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150885502950193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38444079686732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.622392505732945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.09552921148488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71808265515763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322372284059943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.533977912033584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.548849393143372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.198557170657614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0956402655297716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.434996640360863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.879269028760396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.801747775317288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.67445390021457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325874612676196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.367707206311793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56593580977271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.681778599548263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147394567247696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419123072246443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.864227018678854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314153989867605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.420947942677116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.841087338458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61083813076117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.64858022986207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.312707611209986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.584948494429867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631414595817247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.43582377824904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.353897907196575</t>
+    <t xml:space="preserve">-0.501646202577729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.480137759540951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59575454235294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.501006952045065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0537233296477651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63084622036275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0985710863197931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478375887924804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45721879447436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.207550183958892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77758035367253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299429622698815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393725006322478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.170088316084101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.407105396334402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16263935057147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.73629648552169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.904777812666804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.64670489749124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.764426073398833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.01541097476041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.22144672214891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648099787149724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.855920640181915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.723917545763178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60736416060903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18781334714194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.205789988658808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13788627868475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894713172990955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.539564807455542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.36191685140972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0441799710450671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.442904337962539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15014464821772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.438044982589374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.591236195234155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.895662592413552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997897287321548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.662164675624859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0528513498647012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.734096855277061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0384205668702507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427205588766536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.173797480790207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.878052632194381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.668969028205306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.25082947165198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306101423972217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.39179692446138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171129927810775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63417897322292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102366779117491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.07407676277432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.15980633484442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35470792936495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.733274533137664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974762993893176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.763676267244989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0816113122709618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.546472635131392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.45879592005711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10787651117885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534208333040872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.16572057370702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.283654175637588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.047313380443228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12295949898537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.869890258345091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.385801147637373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0575772248430128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.48047885610357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64415101365464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62615172749516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.40772372366695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06042201323327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13604789937857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521227283374812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.904638382755066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.26538722978688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.27666711501235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.288551876371698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.861772409086819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02405501982489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09725386076881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.627024561715619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139568939856814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228229833651602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.734845392118624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20130169000865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0836711706505474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.24653631871839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.16849853143523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.632291480400194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83010841644014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192252922884886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.831533624807802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.213004736131631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.243917878857464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.43063498735479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760916644353825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.37642101065014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448527563814373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869989955205583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40720646685764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.121755934591671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.840894617047296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0880347569000796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931673894188145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40537910317653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528833256131678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.275049313955954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0110576432985577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.94415460722147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.314168448754833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.03419566396224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.324246682367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.428003537210615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881197639313084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.598598037123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.74267935869493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.638033511914279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986070604227726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517061620909369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.46403608944692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.120236369311407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.838479235055924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.23227644642511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511297918045545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.979147503695565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350527149608298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.716035963602968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0145653502030791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166469429797923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.279815595369433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.225487671313494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128455940207803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648801458377076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549327365773385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.02718870868297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.620354665658024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392682625601338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.267535000905462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42463109234403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85071769137738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0579112704554218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.847761900216947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.80555279005146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.677265339166345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44378253720496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27821128530656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0317802520177339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.363216006519619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75436945649772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860591752086755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.17359443467128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.209522381561889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54896306530975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.453478432854623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922832054968963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938675658700709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355630111287876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156937681815607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.647299052842257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.827645364129652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.35564751965223</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -2477,25 +2477,25 @@
         <v>353</v>
       </c>
       <c r="FL2" t="s">
+        <v>353</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>353</v>
+      </c>
+      <c r="FN2" t="s">
         <v>354</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FO2" t="s">
         <v>354</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FP2" t="s">
         <v>353</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>353</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>354</v>
       </c>
       <c r="FQ2" t="s">
         <v>354</v>
       </c>
       <c r="FR2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FS2" t="s">
         <v>354</v>
@@ -2510,28 +2510,28 @@
         <v>353</v>
       </c>
       <c r="FW2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FX2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FY2" t="s">
         <v>354</v>
       </c>
       <c r="FZ2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="GA2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="GB2" t="s">
         <v>354</v>
       </c>
       <c r="GC2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GD2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GE2" t="s">
         <v>355</v>
